--- a/ForceSensorProperty/Measurement.xlsx
+++ b/ForceSensorProperty/Measurement.xlsx
@@ -1,30 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murakami\Documents\BIOENG\final_project\ForceSensorProperty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/murakamikeitarou/classes/Berkeley_Fall/BIOENG_C137/Final Project/git/ForceSensorProperty/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8A160F-D3EF-2549-934D-B212C2E17153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20568" windowHeight="8148"/>
+    <workbookView xWindow="13700" yWindow="1340" windowWidth="20560" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Actual Testing" sheetId="2" r:id="rId1"/>
+    <sheet name="Default" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Voltage[V]</t>
     <phoneticPr fontId="1"/>
@@ -33,23 +41,29 @@
     <t>Force[g]</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Force[g]</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -77,13 +91,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -101,7 +116,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -113,7 +128,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>V-F</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Curve</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -134,12 +177,12 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -154,7 +197,576 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'Actual Testing'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Voltage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.2341395450568679"/>
+                  <c:y val="-4.6622922134733159E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Actual Testing'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1360.7799998370001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2267.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3628.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4535.92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5443.11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6803.89</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9071.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Actual Testing'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1856-FB4D-9908-9E36C27A5194}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2025433440"/>
+        <c:axId val="2063973104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2025433440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Force</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [g]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2063973104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2063973104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Voltage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [V]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2025433440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>V-F</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Curve</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Default!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -218,7 +830,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr lang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -230,14 +842,14 @@
                       <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Default!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -276,7 +888,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Default!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -373,7 +985,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -393,7 +1005,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -407,7 +1018,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -419,7 +1030,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -445,7 +1056,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -457,7 +1068,7 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="526166528"/>
@@ -506,7 +1117,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -526,7 +1137,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -540,7 +1150,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -552,7 +1162,7 @@
                   <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -578,7 +1188,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -590,7 +1200,7 @@
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="526158984"/>
@@ -634,7 +1244,7 @@
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -685,6 +1295,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1201,7 +1851,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{708838FF-2836-4A45-9212-4A7DFAF8979A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1218,7 +2425,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1498,16 +2711,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4D2B7B-DBA7-8B49-AD87-2FE0DCBB07A3}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>500</v>
+      </c>
+      <c r="B5">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1000</v>
+      </c>
+      <c r="B6">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1360.7799998370001</v>
+      </c>
+      <c r="B7">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>2267.96</v>
+      </c>
+      <c r="B8">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>3628.74</v>
+      </c>
+      <c r="B9">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>4535.92</v>
+      </c>
+      <c r="B10">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>5443.11</v>
+      </c>
+      <c r="B11">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>6803.89</v>
+      </c>
+      <c r="B12">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>9071.85</v>
+      </c>
+      <c r="B13">
+        <v>4.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1515,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>20</v>
       </c>
@@ -1523,7 +2856,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>50</v>
       </c>
@@ -1531,7 +2864,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100</v>
       </c>
@@ -1539,7 +2872,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>200</v>
       </c>
@@ -1547,7 +2880,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>320</v>
       </c>
@@ -1555,7 +2888,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>450</v>
       </c>
@@ -1563,7 +2896,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>575</v>
       </c>
@@ -1571,7 +2904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>710</v>
       </c>
@@ -1579,7 +2912,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>900</v>
       </c>
@@ -1587,7 +2920,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1000</v>
       </c>
